--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish_Katepallewar\eclipse-workspace\PageObjectModel\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14995D3A-81E0-4443-BF2C-2627EEE4E2A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34275" yWindow="1770" windowWidth="20865" windowHeight="11835" activeTab="3" xr2:uid="{5A6653D1-6F06-4DE3-AEA1-895CF3D91CE5}"/>
+    <workbookView xWindow="34275" yWindow="1770" windowWidth="20865" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="3" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554B573E-265B-4C0A-B7C7-6B947FFB1882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -467,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC3CDE-D064-40F2-8DCA-63514C94F06D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +488,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -500,14 +499,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E0CE93E3-E91C-40E5-8E55-FD7B15FC6060}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C6E3B-F45A-4370-801E-5D5098D5D8A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -535,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B4E77-5EC6-4F0C-B7C7-B1F8253AF224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +564,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8D610AC1-7E81-4BD8-909C-D81938FFB8AC}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{88A4DB74-ACC1-4A8B-85E6-5F46323C2A85}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
